--- a/gform_JB_JR.xlsx
+++ b/gform_JB_JR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4351">
   <si>
     <t>Timestamp</t>
   </si>
@@ -13459,6 +13459,51 @@
   </si>
   <si>
     <t>spanduk_china_mata_ayam</t>
+  </si>
+  <si>
+    <t>14 FEBRUARY 2025</t>
+  </si>
+  <si>
+    <t>RB621</t>
+  </si>
+  <si>
+    <t>BENY@GMIAL.COM</t>
+  </si>
+  <si>
+    <t>BENNN</t>
+  </si>
+  <si>
+    <t>HANY</t>
+  </si>
+  <si>
+    <t>MALAHAANG</t>
+  </si>
+  <si>
+    <t>PROBOLINNGGO</t>
+  </si>
+  <si>
+    <t>LAINNYA - SPANDUK AYAM BERKOKOK</t>
+  </si>
+  <si>
+    <t>12X12M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANJANG </t>
+  </si>
+  <si>
+    <t>RB622</t>
+  </si>
+  <si>
+    <t>RB629</t>
+  </si>
+  <si>
+    <t>STIKER BACKLITE (UNTUK NEONBOX)</t>
+  </si>
+  <si>
+    <t>RB630</t>
+  </si>
+  <si>
+    <t>RB631</t>
   </si>
   <si>
     <t>autocratn</t>
@@ -14039,7 +14084,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X700"/>
+  <dimension ref="A1:X705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A518"/>
@@ -54537,6 +54582,241 @@
         <v>4223</v>
       </c>
       <c r="O700" s="3" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="701" spans="1:24">
+      <c r="A701" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>4281</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H701" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I701" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J701" s="3" t="s">
+        <v>4287</v>
+      </c>
+      <c r="K701" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L701" s="1">
+        <v>4</v>
+      </c>
+      <c r="M701" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N701" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O701" s="3" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="702" spans="1:24">
+      <c r="A702" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>4290</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H702" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I702" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J702" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K702" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L702" s="1">
+        <v>4</v>
+      </c>
+      <c r="M702" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N702" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O702" s="3" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="703" spans="1:24">
+      <c r="A703" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E703" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F703" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H703" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I703" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J703" s="3" t="s">
+        <v>4292</v>
+      </c>
+      <c r="K703" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L703" s="1">
+        <v>4</v>
+      </c>
+      <c r="M703" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N703" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O703" s="3" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="704" spans="1:24">
+      <c r="A704" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>4293</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F704" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H704" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I704" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J704" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="K704" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L704" s="1">
+        <v>4</v>
+      </c>
+      <c r="M704" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N704" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O704" s="3" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="705" spans="1:24">
+      <c r="A705" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E705" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F705" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H705" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I705" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J705" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="K705" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L705" s="1">
+        <v>4</v>
+      </c>
+      <c r="M705" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N705" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O705" s="3" t="s">
         <v>4244</v>
       </c>
     </row>
@@ -56171,58 +56451,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4280</v>
+        <v>4295</v>
       </c>
       <c r="B1" t="s">
-        <v>4281</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4282</v>
+        <v>4297</v>
       </c>
       <c r="B2" t="s">
-        <v>4283</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4284</v>
+        <v>4299</v>
       </c>
       <c r="B3" t="s">
-        <v>4285</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4286</v>
+        <v>4301</v>
       </c>
       <c r="B4" t="s">
-        <v>4287</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4288</v>
+        <v>4303</v>
       </c>
       <c r="B5" t="s">
-        <v>4289</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4290</v>
+        <v>4305</v>
       </c>
       <c r="B6" t="s">
-        <v>4285</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4291</v>
+        <v>4306</v>
       </c>
       <c r="B7" t="s">
-        <v>4292</v>
+        <v>4307</v>
       </c>
     </row>
   </sheetData>
@@ -56247,102 +56527,102 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>4293</v>
+        <v>4308</v>
       </c>
       <c r="B1" t="s">
-        <v>4294</v>
+        <v>4309</v>
       </c>
       <c r="C1" t="s">
-        <v>4295</v>
+        <v>4310</v>
       </c>
       <c r="D1" t="s">
-        <v>4296</v>
+        <v>4311</v>
       </c>
       <c r="E1" t="s">
-        <v>4297</v>
+        <v>4312</v>
       </c>
       <c r="F1" t="s">
-        <v>4298</v>
+        <v>4313</v>
       </c>
       <c r="G1" t="s">
-        <v>4299</v>
+        <v>4314</v>
       </c>
       <c r="H1" t="s">
-        <v>4300</v>
+        <v>4315</v>
       </c>
       <c r="I1" t="s">
-        <v>4301</v>
+        <v>4316</v>
       </c>
       <c r="J1" t="s">
-        <v>4302</v>
+        <v>4317</v>
       </c>
       <c r="K1" t="s">
-        <v>4303</v>
+        <v>4318</v>
       </c>
       <c r="L1" t="s">
-        <v>4304</v>
+        <v>4319</v>
       </c>
       <c r="M1" t="s">
-        <v>4305</v>
+        <v>4320</v>
       </c>
       <c r="N1" t="s">
-        <v>4306</v>
+        <v>4321</v>
       </c>
       <c r="O1" t="s">
-        <v>4307</v>
+        <v>4322</v>
       </c>
       <c r="P1" t="s">
-        <v>4308</v>
+        <v>4323</v>
       </c>
       <c r="Q1" t="s">
-        <v>4309</v>
+        <v>4324</v>
       </c>
       <c r="R1" t="s">
-        <v>4310</v>
+        <v>4325</v>
       </c>
       <c r="S1" t="s">
-        <v>4311</v>
+        <v>4326</v>
       </c>
       <c r="T1" t="s">
-        <v>4312</v>
+        <v>4327</v>
       </c>
       <c r="U1" t="s">
-        <v>4313</v>
+        <v>4328</v>
       </c>
       <c r="V1" t="s">
-        <v>4314</v>
+        <v>4329</v>
       </c>
       <c r="W1" t="s">
-        <v>4315</v>
+        <v>4330</v>
       </c>
       <c r="X1" t="s">
-        <v>4316</v>
+        <v>4331</v>
       </c>
       <c r="Y1" t="s">
-        <v>4317</v>
+        <v>4332</v>
       </c>
       <c r="Z1" t="s">
-        <v>4318</v>
+        <v>4333</v>
       </c>
       <c r="AA1" t="s">
-        <v>4319</v>
+        <v>4334</v>
       </c>
       <c r="AB1" t="s">
-        <v>4320</v>
+        <v>4335</v>
       </c>
       <c r="AC1" t="s">
-        <v>4321</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>4322</v>
+        <v>4337</v>
       </c>
       <c r="B2" t="s">
-        <v>4323</v>
+        <v>4338</v>
       </c>
       <c r="C2" t="s">
-        <v>4324</v>
+        <v>4339</v>
       </c>
       <c r="D2">
         <v>180482187</v>
@@ -56354,31 +56634,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>4325</v>
+        <v>4340</v>
       </c>
       <c r="H2" t="s">
-        <v>4326</v>
+        <v>4341</v>
       </c>
       <c r="I2" t="s">
-        <v>4326</v>
+        <v>4341</v>
       </c>
       <c r="J2" t="s">
-        <v>4327</v>
+        <v>4342</v>
       </c>
       <c r="K2" t="s">
-        <v>4328</v>
+        <v>4343</v>
       </c>
       <c r="L2" t="s">
-        <v>4328</v>
+        <v>4343</v>
       </c>
       <c r="M2" t="s">
-        <v>4329</v>
+        <v>4344</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>4330</v>
+        <v>4345</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -56393,25 +56673,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>4331</v>
+        <v>4346</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>4332</v>
+        <v>4347</v>
       </c>
       <c r="Z2" t="s">
-        <v>4333</v>
+        <v>4348</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>4334</v>
+        <v>4349</v>
       </c>
       <c r="AC2" t="s">
-        <v>4335</v>
+        <v>4350</v>
       </c>
     </row>
   </sheetData>

--- a/gform_JB_JR.xlsx
+++ b/gform_JB_JR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4353">
   <si>
     <t>Timestamp</t>
   </si>
@@ -13504,6 +13504,12 @@
   </si>
   <si>
     <t>RB631</t>
+  </si>
+  <si>
+    <t>RB633</t>
+  </si>
+  <si>
+    <t>RB634</t>
   </si>
   <si>
     <t>autocratn</t>
@@ -14084,7 +14090,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X705"/>
+  <dimension ref="A1:X707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A518"/>
@@ -54817,6 +54823,100 @@
         <v>4223</v>
       </c>
       <c r="O705" s="3" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="706" spans="1:24">
+      <c r="A706" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E706" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F706" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H706" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I706" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J706" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="K706" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L706" s="1">
+        <v>4</v>
+      </c>
+      <c r="M706" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N706" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O706" s="3" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="707" spans="1:24">
+      <c r="A707" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E707" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H707" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I707" s="2" t="s">
+        <v>4259</v>
+      </c>
+      <c r="J707" s="3" t="s">
+        <v>4260</v>
+      </c>
+      <c r="K707" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L707" s="1">
+        <v>4</v>
+      </c>
+      <c r="M707" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N707" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O707" s="3" t="s">
         <v>4244</v>
       </c>
     </row>
@@ -56451,58 +56551,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4295</v>
+        <v>4297</v>
       </c>
       <c r="B1" t="s">
-        <v>4296</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4297</v>
+        <v>4299</v>
       </c>
       <c r="B2" t="s">
-        <v>4298</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4299</v>
+        <v>4301</v>
       </c>
       <c r="B3" t="s">
-        <v>4300</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4301</v>
+        <v>4303</v>
       </c>
       <c r="B4" t="s">
-        <v>4302</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4303</v>
+        <v>4305</v>
       </c>
       <c r="B5" t="s">
-        <v>4304</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4305</v>
+        <v>4307</v>
       </c>
       <c r="B6" t="s">
-        <v>4300</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4306</v>
+        <v>4308</v>
       </c>
       <c r="B7" t="s">
-        <v>4307</v>
+        <v>4309</v>
       </c>
     </row>
   </sheetData>
@@ -56527,102 +56627,102 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>4308</v>
+        <v>4310</v>
       </c>
       <c r="B1" t="s">
-        <v>4309</v>
+        <v>4311</v>
       </c>
       <c r="C1" t="s">
-        <v>4310</v>
+        <v>4312</v>
       </c>
       <c r="D1" t="s">
-        <v>4311</v>
+        <v>4313</v>
       </c>
       <c r="E1" t="s">
-        <v>4312</v>
+        <v>4314</v>
       </c>
       <c r="F1" t="s">
-        <v>4313</v>
+        <v>4315</v>
       </c>
       <c r="G1" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="H1" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="I1" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
       <c r="J1" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="K1" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="L1" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
       <c r="M1" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
       <c r="N1" t="s">
-        <v>4321</v>
+        <v>4323</v>
       </c>
       <c r="O1" t="s">
-        <v>4322</v>
+        <v>4324</v>
       </c>
       <c r="P1" t="s">
-        <v>4323</v>
+        <v>4325</v>
       </c>
       <c r="Q1" t="s">
-        <v>4324</v>
+        <v>4326</v>
       </c>
       <c r="R1" t="s">
-        <v>4325</v>
+        <v>4327</v>
       </c>
       <c r="S1" t="s">
-        <v>4326</v>
+        <v>4328</v>
       </c>
       <c r="T1" t="s">
-        <v>4327</v>
+        <v>4329</v>
       </c>
       <c r="U1" t="s">
-        <v>4328</v>
+        <v>4330</v>
       </c>
       <c r="V1" t="s">
-        <v>4329</v>
+        <v>4331</v>
       </c>
       <c r="W1" t="s">
-        <v>4330</v>
+        <v>4332</v>
       </c>
       <c r="X1" t="s">
-        <v>4331</v>
+        <v>4333</v>
       </c>
       <c r="Y1" t="s">
-        <v>4332</v>
+        <v>4334</v>
       </c>
       <c r="Z1" t="s">
-        <v>4333</v>
+        <v>4335</v>
       </c>
       <c r="AA1" t="s">
-        <v>4334</v>
+        <v>4336</v>
       </c>
       <c r="AB1" t="s">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="AC1" t="s">
-        <v>4336</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>4337</v>
+        <v>4339</v>
       </c>
       <c r="B2" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="C2" t="s">
-        <v>4339</v>
+        <v>4341</v>
       </c>
       <c r="D2">
         <v>180482187</v>
@@ -56634,31 +56734,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>4340</v>
+        <v>4342</v>
       </c>
       <c r="H2" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="I2" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="J2" t="s">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="K2" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="L2" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="M2" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -56673,25 +56773,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="Z2" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="AC2" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
     </row>
   </sheetData>

--- a/gform_JB_JR.xlsx
+++ b/gform_JB_JR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4356">
   <si>
     <t>Timestamp</t>
   </si>
@@ -13510,6 +13510,15 @@
   </si>
   <si>
     <t>RB634</t>
+  </si>
+  <si>
+    <t>17 FEBRUARY 2025</t>
+  </si>
+  <si>
+    <t>RB529</t>
+  </si>
+  <si>
+    <t>PANJANG TIANG 10M</t>
   </si>
   <si>
     <t>autocratn</t>
@@ -14090,7 +14099,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X707"/>
+  <dimension ref="A1:X708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A518"/>
@@ -54918,6 +54927,53 @@
       </c>
       <c r="O707" s="3" t="s">
         <v>4244</v>
+      </c>
+    </row>
+    <row r="708" spans="1:24">
+      <c r="A708" s="3" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E708" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H708" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I708" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J708" s="3" t="s">
+        <v>3244</v>
+      </c>
+      <c r="K708" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L708" s="1">
+        <v>4</v>
+      </c>
+      <c r="M708" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N708" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O708" s="3" t="s">
+        <v>4299</v>
       </c>
     </row>
   </sheetData>
@@ -56551,58 +56607,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4297</v>
+        <v>4300</v>
       </c>
       <c r="B1" t="s">
-        <v>4298</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4299</v>
+        <v>4302</v>
       </c>
       <c r="B2" t="s">
-        <v>4300</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4301</v>
+        <v>4304</v>
       </c>
       <c r="B3" t="s">
-        <v>4302</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4303</v>
+        <v>4306</v>
       </c>
       <c r="B4" t="s">
-        <v>4304</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4305</v>
+        <v>4308</v>
       </c>
       <c r="B5" t="s">
-        <v>4306</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4307</v>
+        <v>4310</v>
       </c>
       <c r="B6" t="s">
-        <v>4302</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4308</v>
+        <v>4311</v>
       </c>
       <c r="B7" t="s">
-        <v>4309</v>
+        <v>4312</v>
       </c>
     </row>
   </sheetData>
@@ -56627,102 +56683,102 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>4310</v>
+        <v>4313</v>
       </c>
       <c r="B1" t="s">
-        <v>4311</v>
+        <v>4314</v>
       </c>
       <c r="C1" t="s">
-        <v>4312</v>
+        <v>4315</v>
       </c>
       <c r="D1" t="s">
-        <v>4313</v>
+        <v>4316</v>
       </c>
       <c r="E1" t="s">
-        <v>4314</v>
+        <v>4317</v>
       </c>
       <c r="F1" t="s">
-        <v>4315</v>
+        <v>4318</v>
       </c>
       <c r="G1" t="s">
-        <v>4316</v>
+        <v>4319</v>
       </c>
       <c r="H1" t="s">
-        <v>4317</v>
+        <v>4320</v>
       </c>
       <c r="I1" t="s">
-        <v>4318</v>
+        <v>4321</v>
       </c>
       <c r="J1" t="s">
-        <v>4319</v>
+        <v>4322</v>
       </c>
       <c r="K1" t="s">
-        <v>4320</v>
+        <v>4323</v>
       </c>
       <c r="L1" t="s">
-        <v>4321</v>
+        <v>4324</v>
       </c>
       <c r="M1" t="s">
-        <v>4322</v>
+        <v>4325</v>
       </c>
       <c r="N1" t="s">
-        <v>4323</v>
+        <v>4326</v>
       </c>
       <c r="O1" t="s">
-        <v>4324</v>
+        <v>4327</v>
       </c>
       <c r="P1" t="s">
-        <v>4325</v>
+        <v>4328</v>
       </c>
       <c r="Q1" t="s">
-        <v>4326</v>
+        <v>4329</v>
       </c>
       <c r="R1" t="s">
-        <v>4327</v>
+        <v>4330</v>
       </c>
       <c r="S1" t="s">
-        <v>4328</v>
+        <v>4331</v>
       </c>
       <c r="T1" t="s">
-        <v>4329</v>
+        <v>4332</v>
       </c>
       <c r="U1" t="s">
-        <v>4330</v>
+        <v>4333</v>
       </c>
       <c r="V1" t="s">
-        <v>4331</v>
+        <v>4334</v>
       </c>
       <c r="W1" t="s">
-        <v>4332</v>
+        <v>4335</v>
       </c>
       <c r="X1" t="s">
-        <v>4333</v>
+        <v>4336</v>
       </c>
       <c r="Y1" t="s">
-        <v>4334</v>
+        <v>4337</v>
       </c>
       <c r="Z1" t="s">
-        <v>4335</v>
+        <v>4338</v>
       </c>
       <c r="AA1" t="s">
-        <v>4336</v>
+        <v>4339</v>
       </c>
       <c r="AB1" t="s">
-        <v>4337</v>
+        <v>4340</v>
       </c>
       <c r="AC1" t="s">
-        <v>4338</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>4339</v>
+        <v>4342</v>
       </c>
       <c r="B2" t="s">
-        <v>4340</v>
+        <v>4343</v>
       </c>
       <c r="C2" t="s">
-        <v>4341</v>
+        <v>4344</v>
       </c>
       <c r="D2">
         <v>180482187</v>
@@ -56734,31 +56790,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>4342</v>
+        <v>4345</v>
       </c>
       <c r="H2" t="s">
-        <v>4343</v>
+        <v>4346</v>
       </c>
       <c r="I2" t="s">
-        <v>4343</v>
+        <v>4346</v>
       </c>
       <c r="J2" t="s">
-        <v>4344</v>
+        <v>4347</v>
       </c>
       <c r="K2" t="s">
-        <v>4345</v>
+        <v>4348</v>
       </c>
       <c r="L2" t="s">
-        <v>4345</v>
+        <v>4348</v>
       </c>
       <c r="M2" t="s">
-        <v>4346</v>
+        <v>4349</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>4347</v>
+        <v>4350</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -56773,25 +56829,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>4348</v>
+        <v>4351</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>4349</v>
+        <v>4352</v>
       </c>
       <c r="Z2" t="s">
-        <v>4350</v>
+        <v>4353</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>4351</v>
+        <v>4354</v>
       </c>
       <c r="AC2" t="s">
-        <v>4352</v>
+        <v>4355</v>
       </c>
     </row>
   </sheetData>

--- a/gform_JB_JR.xlsx
+++ b/gform_JB_JR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4359">
   <si>
     <t>Timestamp</t>
   </si>
@@ -13519,6 +13519,15 @@
   </si>
   <si>
     <t>PANJANG TIANG 10M</t>
+  </si>
+  <si>
+    <t>18 FEBRUARY 2025</t>
+  </si>
+  <si>
+    <t>RB530</t>
+  </si>
+  <si>
+    <t>PANJANG 1M</t>
   </si>
   <si>
     <t>autocratn</t>
@@ -14099,7 +14108,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X708"/>
+  <dimension ref="A1:X709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A518"/>
@@ -54974,6 +54983,59 @@
       </c>
       <c r="O708" s="3" t="s">
         <v>4299</v>
+      </c>
+    </row>
+    <row r="709" spans="1:24">
+      <c r="A709" s="3" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>4301</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F709" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H709" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I709" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J709" s="3" t="s">
+        <v>3244</v>
+      </c>
+      <c r="K709" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L709" s="1">
+        <v>4</v>
+      </c>
+      <c r="M709" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N709" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O709" s="3" t="s">
+        <v>4302</v>
+      </c>
+      <c r="P709" s="3" t="s">
+        <v>4225</v>
+      </c>
+      <c r="Q709" s="3" t="s">
+        <v>4225</v>
       </c>
     </row>
   </sheetData>
@@ -56585,6 +56647,8 @@
     <hyperlink ref="Q683" r:id="rId_hyperlink_1604"/>
     <hyperlink ref="P685" r:id="rId_hyperlink_1605"/>
     <hyperlink ref="P689" r:id="rId_hyperlink_1606"/>
+    <hyperlink ref="P709" r:id="rId_hyperlink_1607"/>
+    <hyperlink ref="Q709" r:id="rId_hyperlink_1608"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56607,58 +56671,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4300</v>
+        <v>4303</v>
       </c>
       <c r="B1" t="s">
-        <v>4301</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4302</v>
+        <v>4305</v>
       </c>
       <c r="B2" t="s">
-        <v>4303</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4304</v>
+        <v>4307</v>
       </c>
       <c r="B3" t="s">
-        <v>4305</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4306</v>
+        <v>4309</v>
       </c>
       <c r="B4" t="s">
-        <v>4307</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4308</v>
+        <v>4311</v>
       </c>
       <c r="B5" t="s">
-        <v>4309</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4310</v>
+        <v>4313</v>
       </c>
       <c r="B6" t="s">
-        <v>4305</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4311</v>
+        <v>4314</v>
       </c>
       <c r="B7" t="s">
-        <v>4312</v>
+        <v>4315</v>
       </c>
     </row>
   </sheetData>
@@ -56683,102 +56747,102 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>4313</v>
+        <v>4316</v>
       </c>
       <c r="B1" t="s">
-        <v>4314</v>
+        <v>4317</v>
       </c>
       <c r="C1" t="s">
-        <v>4315</v>
+        <v>4318</v>
       </c>
       <c r="D1" t="s">
-        <v>4316</v>
+        <v>4319</v>
       </c>
       <c r="E1" t="s">
-        <v>4317</v>
+        <v>4320</v>
       </c>
       <c r="F1" t="s">
-        <v>4318</v>
+        <v>4321</v>
       </c>
       <c r="G1" t="s">
-        <v>4319</v>
+        <v>4322</v>
       </c>
       <c r="H1" t="s">
-        <v>4320</v>
+        <v>4323</v>
       </c>
       <c r="I1" t="s">
-        <v>4321</v>
+        <v>4324</v>
       </c>
       <c r="J1" t="s">
-        <v>4322</v>
+        <v>4325</v>
       </c>
       <c r="K1" t="s">
-        <v>4323</v>
+        <v>4326</v>
       </c>
       <c r="L1" t="s">
-        <v>4324</v>
+        <v>4327</v>
       </c>
       <c r="M1" t="s">
-        <v>4325</v>
+        <v>4328</v>
       </c>
       <c r="N1" t="s">
-        <v>4326</v>
+        <v>4329</v>
       </c>
       <c r="O1" t="s">
-        <v>4327</v>
+        <v>4330</v>
       </c>
       <c r="P1" t="s">
-        <v>4328</v>
+        <v>4331</v>
       </c>
       <c r="Q1" t="s">
-        <v>4329</v>
+        <v>4332</v>
       </c>
       <c r="R1" t="s">
-        <v>4330</v>
+        <v>4333</v>
       </c>
       <c r="S1" t="s">
-        <v>4331</v>
+        <v>4334</v>
       </c>
       <c r="T1" t="s">
-        <v>4332</v>
+        <v>4335</v>
       </c>
       <c r="U1" t="s">
-        <v>4333</v>
+        <v>4336</v>
       </c>
       <c r="V1" t="s">
-        <v>4334</v>
+        <v>4337</v>
       </c>
       <c r="W1" t="s">
-        <v>4335</v>
+        <v>4338</v>
       </c>
       <c r="X1" t="s">
-        <v>4336</v>
+        <v>4339</v>
       </c>
       <c r="Y1" t="s">
-        <v>4337</v>
+        <v>4340</v>
       </c>
       <c r="Z1" t="s">
-        <v>4338</v>
+        <v>4341</v>
       </c>
       <c r="AA1" t="s">
-        <v>4339</v>
+        <v>4342</v>
       </c>
       <c r="AB1" t="s">
-        <v>4340</v>
+        <v>4343</v>
       </c>
       <c r="AC1" t="s">
-        <v>4341</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>4342</v>
+        <v>4345</v>
       </c>
       <c r="B2" t="s">
-        <v>4343</v>
+        <v>4346</v>
       </c>
       <c r="C2" t="s">
-        <v>4344</v>
+        <v>4347</v>
       </c>
       <c r="D2">
         <v>180482187</v>
@@ -56790,31 +56854,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>4345</v>
+        <v>4348</v>
       </c>
       <c r="H2" t="s">
-        <v>4346</v>
+        <v>4349</v>
       </c>
       <c r="I2" t="s">
-        <v>4346</v>
+        <v>4349</v>
       </c>
       <c r="J2" t="s">
-        <v>4347</v>
+        <v>4350</v>
       </c>
       <c r="K2" t="s">
-        <v>4348</v>
+        <v>4351</v>
       </c>
       <c r="L2" t="s">
-        <v>4348</v>
+        <v>4351</v>
       </c>
       <c r="M2" t="s">
-        <v>4349</v>
+        <v>4352</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>4350</v>
+        <v>4353</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -56829,25 +56893,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>4351</v>
+        <v>4354</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>4352</v>
+        <v>4355</v>
       </c>
       <c r="Z2" t="s">
-        <v>4353</v>
+        <v>4356</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>4354</v>
+        <v>4357</v>
       </c>
       <c r="AC2" t="s">
-        <v>4355</v>
+        <v>4358</v>
       </c>
     </row>
   </sheetData>

--- a/gform_JB_JR.xlsx
+++ b/gform_JB_JR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4360">
   <si>
     <t>Timestamp</t>
   </si>
@@ -13528,6 +13528,9 @@
   </si>
   <si>
     <t>PANJANG 1M</t>
+  </si>
+  <si>
+    <t>RB531</t>
   </si>
   <si>
     <t>autocratn</t>
@@ -14108,7 +14111,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X709"/>
+  <dimension ref="A1:X710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A518"/>
@@ -55036,6 +55039,53 @@
       </c>
       <c r="Q709" s="3" t="s">
         <v>4225</v>
+      </c>
+    </row>
+    <row r="710" spans="1:24">
+      <c r="A710" s="3" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F710" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H710" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I710" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J710" s="3" t="s">
+        <v>4260</v>
+      </c>
+      <c r="K710" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L710" s="1">
+        <v>4</v>
+      </c>
+      <c r="M710" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N710" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O710" s="3" t="s">
+        <v>4289</v>
       </c>
     </row>
   </sheetData>
@@ -56671,58 +56721,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="B1" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="B2" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="B3" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="B4" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="B5" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="B6" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="B7" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
     </row>
   </sheetData>
@@ -56747,102 +56797,102 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="B1" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="C1" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="D1" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="F1" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="G1" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="H1" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="I1" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="J1" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="K1" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="L1" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="M1" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="N1" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="O1" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="P1" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="Q1" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="R1" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="S1" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="T1" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="U1" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="V1" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="W1" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="X1" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="Y1" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="Z1" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="AA1" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="AB1" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="AC1" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="B2" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="C2" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="D2">
         <v>180482187</v>
@@ -56854,31 +56904,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="H2" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="I2" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="J2" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="K2" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="L2" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="M2" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -56893,25 +56943,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="Z2" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="AC2" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
     </row>
   </sheetData>

--- a/gform_JB_JR.xlsx
+++ b/gform_JB_JR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4362">
   <si>
     <t>Timestamp</t>
   </si>
@@ -13531,6 +13531,12 @@
   </si>
   <si>
     <t>RB531</t>
+  </si>
+  <si>
+    <t>20 FEBRUARY 2025</t>
+  </si>
+  <si>
+    <t>RB532</t>
   </si>
   <si>
     <t>autocratn</t>
@@ -14111,7 +14117,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X710"/>
+  <dimension ref="A1:X711"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A518"/>
@@ -55086,6 +55092,53 @@
       </c>
       <c r="O710" s="3" t="s">
         <v>4289</v>
+      </c>
+    </row>
+    <row r="711" spans="1:24">
+      <c r="A711" s="3" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E711" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H711" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I711" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J711" s="3" t="s">
+        <v>4260</v>
+      </c>
+      <c r="K711" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L711" s="1">
+        <v>4</v>
+      </c>
+      <c r="M711" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N711" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O711" s="3" t="s">
+        <v>4244</v>
       </c>
     </row>
   </sheetData>
@@ -56721,58 +56774,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4304</v>
+        <v>4306</v>
       </c>
       <c r="B1" t="s">
-        <v>4305</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4306</v>
+        <v>4308</v>
       </c>
       <c r="B2" t="s">
-        <v>4307</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4308</v>
+        <v>4310</v>
       </c>
       <c r="B3" t="s">
-        <v>4309</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4310</v>
+        <v>4312</v>
       </c>
       <c r="B4" t="s">
-        <v>4311</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4312</v>
+        <v>4314</v>
       </c>
       <c r="B5" t="s">
-        <v>4313</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="B6" t="s">
-        <v>4309</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="B7" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
     </row>
   </sheetData>
@@ -56797,102 +56850,102 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="B1" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="C1" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
       <c r="D1" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
       <c r="E1" t="s">
-        <v>4321</v>
+        <v>4323</v>
       </c>
       <c r="F1" t="s">
-        <v>4322</v>
+        <v>4324</v>
       </c>
       <c r="G1" t="s">
-        <v>4323</v>
+        <v>4325</v>
       </c>
       <c r="H1" t="s">
-        <v>4324</v>
+        <v>4326</v>
       </c>
       <c r="I1" t="s">
-        <v>4325</v>
+        <v>4327</v>
       </c>
       <c r="J1" t="s">
-        <v>4326</v>
+        <v>4328</v>
       </c>
       <c r="K1" t="s">
-        <v>4327</v>
+        <v>4329</v>
       </c>
       <c r="L1" t="s">
-        <v>4328</v>
+        <v>4330</v>
       </c>
       <c r="M1" t="s">
-        <v>4329</v>
+        <v>4331</v>
       </c>
       <c r="N1" t="s">
-        <v>4330</v>
+        <v>4332</v>
       </c>
       <c r="O1" t="s">
-        <v>4331</v>
+        <v>4333</v>
       </c>
       <c r="P1" t="s">
-        <v>4332</v>
+        <v>4334</v>
       </c>
       <c r="Q1" t="s">
-        <v>4333</v>
+        <v>4335</v>
       </c>
       <c r="R1" t="s">
-        <v>4334</v>
+        <v>4336</v>
       </c>
       <c r="S1" t="s">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="T1" t="s">
-        <v>4336</v>
+        <v>4338</v>
       </c>
       <c r="U1" t="s">
-        <v>4337</v>
+        <v>4339</v>
       </c>
       <c r="V1" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="W1" t="s">
-        <v>4339</v>
+        <v>4341</v>
       </c>
       <c r="X1" t="s">
-        <v>4340</v>
+        <v>4342</v>
       </c>
       <c r="Y1" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="Z1" t="s">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="AA1" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="AB1" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
       <c r="AC1" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="B2" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="C2" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="D2">
         <v>180482187</v>
@@ -56904,31 +56957,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="H2" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
       <c r="I2" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
       <c r="J2" t="s">
-        <v>4351</v>
+        <v>4353</v>
       </c>
       <c r="K2" t="s">
-        <v>4352</v>
+        <v>4354</v>
       </c>
       <c r="L2" t="s">
-        <v>4352</v>
+        <v>4354</v>
       </c>
       <c r="M2" t="s">
-        <v>4353</v>
+        <v>4355</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>4354</v>
+        <v>4356</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -56943,25 +56996,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>4355</v>
+        <v>4357</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>4356</v>
+        <v>4358</v>
       </c>
       <c r="Z2" t="s">
-        <v>4357</v>
+        <v>4359</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>4358</v>
+        <v>4360</v>
       </c>
       <c r="AC2" t="s">
-        <v>4359</v>
+        <v>4361</v>
       </c>
     </row>
   </sheetData>

--- a/gform_JB_JR.xlsx
+++ b/gform_JB_JR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4369">
   <si>
     <t>Timestamp</t>
   </si>
@@ -13537,6 +13537,27 @@
   </si>
   <si>
     <t>RB532</t>
+  </si>
+  <si>
+    <t>24 FEBRUARY 2025</t>
+  </si>
+  <si>
+    <t>RB533</t>
+  </si>
+  <si>
+    <t>BENY@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>stiker_backlite</t>
+  </si>
+  <si>
+    <t>PANAJNG 3 M</t>
+  </si>
+  <si>
+    <t>akrilik_bening</t>
+  </si>
+  <si>
+    <t>panjang tiang</t>
   </si>
   <si>
     <t>autocratn</t>
@@ -14117,7 +14138,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X711"/>
+  <dimension ref="A1:X714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A518"/>
@@ -54617,6 +54638,15 @@
       <c r="O700" s="3" t="s">
         <v>4244</v>
       </c>
+      <c r="P700" s="3"/>
+      <c r="Q700" s="3"/>
+      <c r="R700" s="3"/>
+      <c r="S700" s="3"/>
+      <c r="T700" s="3"/>
+      <c r="U700" s="3"/>
+      <c r="V700" s="3"/>
+      <c r="W700" s="3"/>
+      <c r="X700" s="3"/>
     </row>
     <row r="701" spans="1:24">
       <c r="A701" s="3" t="s">
@@ -54664,6 +54694,15 @@
       <c r="O701" s="3" t="s">
         <v>4289</v>
       </c>
+      <c r="P701" s="3"/>
+      <c r="Q701" s="3"/>
+      <c r="R701" s="3"/>
+      <c r="S701" s="3"/>
+      <c r="T701" s="3"/>
+      <c r="U701" s="3"/>
+      <c r="V701" s="3"/>
+      <c r="W701" s="3"/>
+      <c r="X701" s="3"/>
     </row>
     <row r="702" spans="1:24">
       <c r="A702" s="3" t="s">
@@ -54711,6 +54750,15 @@
       <c r="O702" s="3" t="s">
         <v>4244</v>
       </c>
+      <c r="P702" s="3"/>
+      <c r="Q702" s="3"/>
+      <c r="R702" s="3"/>
+      <c r="S702" s="3"/>
+      <c r="T702" s="3"/>
+      <c r="U702" s="3"/>
+      <c r="V702" s="3"/>
+      <c r="W702" s="3"/>
+      <c r="X702" s="3"/>
     </row>
     <row r="703" spans="1:24">
       <c r="A703" s="3" t="s">
@@ -54758,6 +54806,15 @@
       <c r="O703" s="3" t="s">
         <v>4244</v>
       </c>
+      <c r="P703" s="3"/>
+      <c r="Q703" s="3"/>
+      <c r="R703" s="3"/>
+      <c r="S703" s="3"/>
+      <c r="T703" s="3"/>
+      <c r="U703" s="3"/>
+      <c r="V703" s="3"/>
+      <c r="W703" s="3"/>
+      <c r="X703" s="3"/>
     </row>
     <row r="704" spans="1:24">
       <c r="A704" s="3" t="s">
@@ -54805,6 +54862,15 @@
       <c r="O704" s="3" t="s">
         <v>4244</v>
       </c>
+      <c r="P704" s="3"/>
+      <c r="Q704" s="3"/>
+      <c r="R704" s="3"/>
+      <c r="S704" s="3"/>
+      <c r="T704" s="3"/>
+      <c r="U704" s="3"/>
+      <c r="V704" s="3"/>
+      <c r="W704" s="3"/>
+      <c r="X704" s="3"/>
     </row>
     <row r="705" spans="1:24">
       <c r="A705" s="3" t="s">
@@ -54852,6 +54918,15 @@
       <c r="O705" s="3" t="s">
         <v>4244</v>
       </c>
+      <c r="P705" s="3"/>
+      <c r="Q705" s="3"/>
+      <c r="R705" s="3"/>
+      <c r="S705" s="3"/>
+      <c r="T705" s="3"/>
+      <c r="U705" s="3"/>
+      <c r="V705" s="3"/>
+      <c r="W705" s="3"/>
+      <c r="X705" s="3"/>
     </row>
     <row r="706" spans="1:24">
       <c r="A706" s="3" t="s">
@@ -54899,6 +54974,15 @@
       <c r="O706" s="3" t="s">
         <v>4244</v>
       </c>
+      <c r="P706" s="3"/>
+      <c r="Q706" s="3"/>
+      <c r="R706" s="3"/>
+      <c r="S706" s="3"/>
+      <c r="T706" s="3"/>
+      <c r="U706" s="3"/>
+      <c r="V706" s="3"/>
+      <c r="W706" s="3"/>
+      <c r="X706" s="3"/>
     </row>
     <row r="707" spans="1:24">
       <c r="A707" s="3" t="s">
@@ -54946,6 +55030,15 @@
       <c r="O707" s="3" t="s">
         <v>4244</v>
       </c>
+      <c r="P707" s="3"/>
+      <c r="Q707" s="3"/>
+      <c r="R707" s="3"/>
+      <c r="S707" s="3"/>
+      <c r="T707" s="3"/>
+      <c r="U707" s="3"/>
+      <c r="V707" s="3"/>
+      <c r="W707" s="3"/>
+      <c r="X707" s="3"/>
     </row>
     <row r="708" spans="1:24">
       <c r="A708" s="3" t="s">
@@ -54993,6 +55086,15 @@
       <c r="O708" s="3" t="s">
         <v>4299</v>
       </c>
+      <c r="P708" s="3"/>
+      <c r="Q708" s="3"/>
+      <c r="R708" s="3"/>
+      <c r="S708" s="3"/>
+      <c r="T708" s="3"/>
+      <c r="U708" s="3"/>
+      <c r="V708" s="3"/>
+      <c r="W708" s="3"/>
+      <c r="X708" s="3"/>
     </row>
     <row r="709" spans="1:24">
       <c r="A709" s="3" t="s">
@@ -55046,6 +55148,13 @@
       <c r="Q709" s="3" t="s">
         <v>4225</v>
       </c>
+      <c r="R709" s="3"/>
+      <c r="S709" s="3"/>
+      <c r="T709" s="3"/>
+      <c r="U709" s="3"/>
+      <c r="V709" s="3"/>
+      <c r="W709" s="3"/>
+      <c r="X709" s="3"/>
     </row>
     <row r="710" spans="1:24">
       <c r="A710" s="3" t="s">
@@ -55093,6 +55202,15 @@
       <c r="O710" s="3" t="s">
         <v>4289</v>
       </c>
+      <c r="P710" s="3"/>
+      <c r="Q710" s="3"/>
+      <c r="R710" s="3"/>
+      <c r="S710" s="3"/>
+      <c r="T710" s="3"/>
+      <c r="U710" s="3"/>
+      <c r="V710" s="3"/>
+      <c r="W710" s="3"/>
+      <c r="X710" s="3"/>
     </row>
     <row r="711" spans="1:24">
       <c r="A711" s="3" t="s">
@@ -55139,6 +55257,166 @@
       </c>
       <c r="O711" s="3" t="s">
         <v>4244</v>
+      </c>
+      <c r="P711" s="3"/>
+      <c r="Q711" s="3"/>
+      <c r="R711" s="3"/>
+      <c r="S711" s="3"/>
+      <c r="T711" s="3"/>
+      <c r="U711" s="3"/>
+      <c r="V711" s="3"/>
+      <c r="W711" s="3"/>
+      <c r="X711" s="3"/>
+    </row>
+    <row r="712" spans="1:24">
+      <c r="A712" s="3" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E712" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F712" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H712" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I712" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J712" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K712" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L712" s="1">
+        <v>4</v>
+      </c>
+      <c r="M712" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N712" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O712" s="3" t="s">
+        <v>4244</v>
+      </c>
+      <c r="P712" s="3"/>
+      <c r="Q712" s="3"/>
+      <c r="R712" s="3"/>
+      <c r="S712" s="3"/>
+      <c r="T712" s="3"/>
+      <c r="U712" s="3"/>
+      <c r="V712" s="3"/>
+      <c r="W712" s="3"/>
+      <c r="X712" s="3"/>
+    </row>
+    <row r="713" spans="1:24">
+      <c r="A713" s="3"/>
+      <c r="B713" s="3"/>
+      <c r="C713" s="2" t="s">
+        <v>4308</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E713" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H713" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I713" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J713" s="3" t="s">
+        <v>4309</v>
+      </c>
+      <c r="K713" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L713" s="1">
+        <v>4</v>
+      </c>
+      <c r="M713" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N713" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O713" s="3" t="s">
+        <v>4310</v>
+      </c>
+      <c r="P713" s="3"/>
+      <c r="Q713" s="3"/>
+      <c r="R713" s="3"/>
+      <c r="S713" s="3"/>
+      <c r="T713" s="3"/>
+      <c r="U713" s="3"/>
+      <c r="V713" s="3"/>
+      <c r="W713" s="3"/>
+      <c r="X713" s="3"/>
+    </row>
+    <row r="714" spans="1:24">
+      <c r="A714" s="3"/>
+      <c r="B714" s="3"/>
+      <c r="C714" s="2" t="s">
+        <v>4308</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H714" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I714" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J714" s="3" t="s">
+        <v>4311</v>
+      </c>
+      <c r="K714" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L714" s="1">
+        <v>4</v>
+      </c>
+      <c r="M714" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N714" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="O714" s="3" t="s">
+        <v>4312</v>
       </c>
     </row>
   </sheetData>
@@ -56774,58 +57052,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4306</v>
+        <v>4313</v>
       </c>
       <c r="B1" t="s">
-        <v>4307</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4308</v>
+        <v>4315</v>
       </c>
       <c r="B2" t="s">
-        <v>4309</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4310</v>
+        <v>4317</v>
       </c>
       <c r="B3" t="s">
-        <v>4311</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4312</v>
+        <v>4319</v>
       </c>
       <c r="B4" t="s">
-        <v>4313</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4314</v>
+        <v>4321</v>
       </c>
       <c r="B5" t="s">
-        <v>4315</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4316</v>
+        <v>4323</v>
       </c>
       <c r="B6" t="s">
-        <v>4311</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4317</v>
+        <v>4324</v>
       </c>
       <c r="B7" t="s">
-        <v>4318</v>
+        <v>4325</v>
       </c>
     </row>
   </sheetData>
@@ -56850,102 +57128,102 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>4319</v>
+        <v>4326</v>
       </c>
       <c r="B1" t="s">
-        <v>4320</v>
+        <v>4327</v>
       </c>
       <c r="C1" t="s">
-        <v>4321</v>
+        <v>4328</v>
       </c>
       <c r="D1" t="s">
-        <v>4322</v>
+        <v>4329</v>
       </c>
       <c r="E1" t="s">
-        <v>4323</v>
+        <v>4330</v>
       </c>
       <c r="F1" t="s">
-        <v>4324</v>
+        <v>4331</v>
       </c>
       <c r="G1" t="s">
-        <v>4325</v>
+        <v>4332</v>
       </c>
       <c r="H1" t="s">
-        <v>4326</v>
+        <v>4333</v>
       </c>
       <c r="I1" t="s">
-        <v>4327</v>
+        <v>4334</v>
       </c>
       <c r="J1" t="s">
-        <v>4328</v>
+        <v>4335</v>
       </c>
       <c r="K1" t="s">
-        <v>4329</v>
+        <v>4336</v>
       </c>
       <c r="L1" t="s">
-        <v>4330</v>
+        <v>4337</v>
       </c>
       <c r="M1" t="s">
-        <v>4331</v>
+        <v>4338</v>
       </c>
       <c r="N1" t="s">
-        <v>4332</v>
+        <v>4339</v>
       </c>
       <c r="O1" t="s">
-        <v>4333</v>
+        <v>4340</v>
       </c>
       <c r="P1" t="s">
-        <v>4334</v>
+        <v>4341</v>
       </c>
       <c r="Q1" t="s">
-        <v>4335</v>
+        <v>4342</v>
       </c>
       <c r="R1" t="s">
-        <v>4336</v>
+        <v>4343</v>
       </c>
       <c r="S1" t="s">
-        <v>4337</v>
+        <v>4344</v>
       </c>
       <c r="T1" t="s">
-        <v>4338</v>
+        <v>4345</v>
       </c>
       <c r="U1" t="s">
-        <v>4339</v>
+        <v>4346</v>
       </c>
       <c r="V1" t="s">
-        <v>4340</v>
+        <v>4347</v>
       </c>
       <c r="W1" t="s">
-        <v>4341</v>
+        <v>4348</v>
       </c>
       <c r="X1" t="s">
-        <v>4342</v>
+        <v>4349</v>
       </c>
       <c r="Y1" t="s">
-        <v>4343</v>
+        <v>4350</v>
       </c>
       <c r="Z1" t="s">
-        <v>4344</v>
+        <v>4351</v>
       </c>
       <c r="AA1" t="s">
-        <v>4345</v>
+        <v>4352</v>
       </c>
       <c r="AB1" t="s">
-        <v>4346</v>
+        <v>4353</v>
       </c>
       <c r="AC1" t="s">
-        <v>4347</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>4348</v>
+        <v>4355</v>
       </c>
       <c r="B2" t="s">
-        <v>4349</v>
+        <v>4356</v>
       </c>
       <c r="C2" t="s">
-        <v>4350</v>
+        <v>4357</v>
       </c>
       <c r="D2">
         <v>180482187</v>
@@ -56957,31 +57235,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>4351</v>
+        <v>4358</v>
       </c>
       <c r="H2" t="s">
-        <v>4352</v>
+        <v>4359</v>
       </c>
       <c r="I2" t="s">
-        <v>4352</v>
+        <v>4359</v>
       </c>
       <c r="J2" t="s">
-        <v>4353</v>
+        <v>4360</v>
       </c>
       <c r="K2" t="s">
-        <v>4354</v>
+        <v>4361</v>
       </c>
       <c r="L2" t="s">
-        <v>4354</v>
+        <v>4361</v>
       </c>
       <c r="M2" t="s">
-        <v>4355</v>
+        <v>4362</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>4356</v>
+        <v>4363</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -56996,25 +57274,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>4357</v>
+        <v>4364</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>4358</v>
+        <v>4365</v>
       </c>
       <c r="Z2" t="s">
-        <v>4359</v>
+        <v>4366</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>4360</v>
+        <v>4367</v>
       </c>
       <c r="AC2" t="s">
-        <v>4361</v>
+        <v>4368</v>
       </c>
     </row>
   </sheetData>
